--- a/500all/speech_level/speeches_CHRG-114hhrg95249.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95249.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    Without objection, the chair is authorized to declare a recess at any time.    The Internal Revenue Service, the IRS--perhaps no other agency, no other institution in our government causes more fear, more concern, more distress, or outright panic at the mere mention of their name than the IRS.    Entanglement with the IRS is never good. Most Americans work hard, pay their taxes, and just want to live a life free of harassment. And most of the IRS employees are good, decent, hardworking, patriotic people doing a tough job working for the government and are honest in their dealings, but, unfortunately, not all of them.    Nearly 2 years ago, the Treasury Inspector General for Tax Administration, often referred to as ``TIGTA,'' did an audit that confirmed what many on this committee had feared and heard: The IRS was targeting and delaying the applications for 501(c)(4) status of conservative nonprofit organizations because of their political beliefs.    The IRS was on the lookout for applications that focused on the national debt, ``criticized how the country was run,'' or that sought to educate the public on how to, ``make America a better place to live.''    These were conservatives trying to play by the rules, but some in the IRS didn't want them in the game. They didn't even want them to have a voice.    When it was first revealed that the IRS was targeting Americans and suppressing their First Amendment rights because of their political beliefs, President Obama said this, ``If, in fact, IRS personnel engaged in the kind of practices that have been reported on and were intentionally targeting conservative groups, then that is outrageous and there is no place for it. And they have to be held fully accountable, because the IRS, as an independent agency, requires absolute integrity, and the people have to have confidence that they are applying the laws in a nonpartisan way.''    I agree with the President. He was absolutely and totally right.    But, sometime right before the Super Bowl rolled around, before any of the investigations were complete, the President concluded there was, ``not even a smidgen of corruption.'' I have no idea how the President came to such a definitive conclusion without all the facts, but he obviously sent a signal as to how he would like this to be concluded.    On the one hand, the President has come to a conclusion, and, on the other hand, there's an ongoing investigation by the Inspector General and the Department of Justice.    But Congress has a role. As the new chairman of the Committee, I thought it would be appropriate to get an update on the investigation from the Inspector General. I want us to focus on the facts, wherever they may lead us.    And, thus far, the IRS, and specifically its commissioner, has given us a lot of different answers to some fairly simple questions.    The Oversight Committee subpoenaed the IRS in August 2013 seeking emails from Lois Lerner as well as others involved in the targeting. Months later, we did not have all the Lois Lerner emails. In an Oversight hearing on March 26, 2014, Commissioner Koskinen testified under oath that he had all the emails and he would produce all the emails.    Yet, on June 13, 2014, the IRS sent a letter to the Senate Finance stating a multiyear tranche of Lois Lerner's emails had been destroyed. A June 13, 2014, letter sent to Senate Finance said, ``IRS confirmed the backup tapes from 2011 no longer exist because they've been recycled pursuant to the IRS normal policy.''    June 20, 2014, before Ways and Means, Chairman Camp said, ``Your letter describes the Lois Lerner emails as being unrecoverable,'' Commissioner Koskinen: ``Correct.''    February 11, 2015, in an Oversight hearing, Mr. DeSantis of Florida says, ``You made the effort. You were not cavalier about this. You made the effort to find what the Committee wanted.'' Mr. Koskinen: ``Yes.''    The IRS Commissioner has said they went to, ``great lengths'' and made extraordinary efforts to recover the emails. This is but a small sampling of the Commissioner's definitive and precise Statements about the missing emails. Yet I believe what we will hear this evening is far different than we were led to believe.    To the men and women in the Inspector General office, we cannot thank you enough for your hard work, the long days that you're working to get the information to the American public and for this committee.    We look ultimately to reading the final report, but it is appropriate to give an update today, and so we appreciate you being here.    With that, I will yield back and recognize the gentleman from Maryland, the ranking member, Mr. Cummings.</t>
   </si>
   <si>
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    I want to take a moment to commend you for the way the Committee has been running since you became chairman. You have shown tremendous respect for our side, and I really appreciate that. And that goes not only for you but your staff, and I appreciate everything that they've done to work with us. Everyone notices the more collegial and collaborative atmosphere on our committee, and that is due to your efforts and the tone you have set.    Mr. Chairman, there are certainly issues we're going to disagree on, and today's hearing is one of those issues. But we take your words to heart, and we will disagree without being disagreeable.    With respect to today's hearing, I believe it is premature. Two days ago, Mr. Camus, who will be testifying in a few moments with the Inspector General, told our staff, said their investigation is not finished, that their report is not done, and that they will not be able to fully answer many of the questions Members have at this time.    He provided our staffs with some information about the status of their efforts to recover additional emails from Ms. Lerner, but he cautioned us not to discuss those details publicly while their investigation's still ongoing. Based on this request, it seems that the best course of action would be to have the Inspector General come back when his report is complete so that we can discuss it fully.    Nevertheless, since we are here, I will make just three points.    First, according to the Inspector General's previous work, the emails that were lost when Ms. Lerner's hard drive crashed were from before Ms. Lerner discovered that inappropriate criteria was being used by IRS employees in Cincinnati. Ms. Lerner's computer crashed on June 13, 2011, but she was not informed until June 29, 2011, that IRS employees were using inappropriate criteria to screen tax-exempt applicants.    That is according to a report issued by the Inspector General in May 2013, more than a year and a half ago. According to the same report, after Ms. Lerner discovered what was going on, she, ``immediately directed that the criteria be changed.''    Second, the Inspector General has identified no evidence to us that the White House directed this activity. Despite many claims by Republicans, there is simply no evidence after nearly 2 years of investigating to support this wholly unsubstantiated conspiracy theory.    Third, the Inspector General has identified no evidence to us that Ms. Lerner intentionally crashed her computer. To the contrary, all of the evidence we have obtained, including contemporaneous emails sent at the time, indicates that her computer crashed due to technological problems. And nothing we have learned since the Inspector General issued his previous report contradicts these findings.    We have also learned nothing since that time to contradict the account of the self-described, ``conservative Republican,'' screening group manager in Cincinnati, who was interviewed by this committee on June 6, 2013. He Stated that he and his employees were motivated only by a desire to efficiently group a large number of similar cases rather than by any political bias.    Let me conclude by putting some additional facts on the record.    Today's hearing is the 21st hearing our committee has held on these issues. This is the fourth time the Inspector General has testified before us on this subject. The Commissioner of the IRS, Mr. Koskinen, has testified before us six times on these topics, not counting many additional appearances before other committees.    This committee has conducted more than 50 transcribed witness interviews on these issues. The IRS has produced more than 1 million pages of documents on this topic. At its peak, the IRS had more than 250 employees responding to these inquiries, and they dedicated more than 150,000 hours of work effort to address our concerns.    At the end of last year, the IRS reported spending approximately $20 million responding to congressional inquiries. Twenty million dollars is an enormous amount of money. That total does not include the amounts we've spent here on this committee. It does not include the amounts numerous other committees have been spent.    And so I conclude by saying it does not include the amounts other agencies have spent, including Department of Justice, the Federal Elections Commission, or the Securities and Exchange Commission. And it does not include the amounts the Inspector General has spent and continues to spend to this day.    Going forward, it is my sincere hope that we will work in a bipartisan manner on hearings that further our shared goals of benefiting the American people.    And, with that, I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>George</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. George. Well, actually, I have a very brief opening Statement and then will defer to Mr. Camus.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Mr. Camus?</t>
   </si>
   <si>
-    <t>Camus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Camus. Chairman Chaffetz, Ranking Member Cummings, and members of the full committee, I've been requested to come here today to provide an update on my agency's efforts thus far in attempting to recover the missing emails of former IRS employee Lois Lerner.    On June 13, 2014, in a letter to the Senate Finance Committee, the IRS reported that, as it was completing its document production for Congress concerning allegations that the IRS targeted certain 501(c)(4) applicants, the IRS realized that the production of the emails of Lois Lerner, the former Director of IRS Exempt Organizations Division, had gaps in the email production.    The IRS reported that, in its attempt to find missing emails, they realized that in June 2011 Ms. Lerner's IRS laptop computer suffered a hard-drive crash, and, therefore, some of her emails could not be recovered.    The following Monday, on June 16, 2014, TIGTA initiated an investigation into the circumstances surrounding the missing emails and the hard-drive crash.    One week later, on June 23, 2014, TIGTA received a letter from then-Chairman Ron Wyden and then-Ranking Member Orrin Hatch of the Senate Finance Committee that requested TIGTA to formally investigate the matter, including to, ``perform its own analysis of whether any data can be salvaged and produced to the Committee.''    The circumstances surrounding the loss of data, the hard-drive crash, and the manner in which IRS handled its electronic media are still under investigation. However, we have periodically updated certain committees of Congress, including this committee, concerning our progress in recovering emails. But we have not discussed the investigation itself.    There are two parts of our mission here. One part is attempting to recover the emails, and the second part is to investigate the circumstances surrounding the missing email.    Until the investigation is completed, the facts and circumstances as we understand them can and have changed on a daily basis. To avoid speculating and reaching conclusions that later turn out to be false, as investigators, we avoid drawing any conclusions until all of the facts are in. I owe it to the American people to ensure that we continue to thoroughly and impartially investigate this matter, gathering all of the facts and evidence in order to get to the truth.    That said, at this time, I cannot provide any information on the investigation surrounding the IRS's loss of the data and hard-drive crash, as that could negatively impact our ability to complete the investigation as well as raise questions into the integrity of our investigative process. But, at this time, I will provide a progress report on our efforts to recover missing emails.    The IRS manages its email for its 91,000 employees by routing the email through Microsoft Exchange Servers that are backed up periodically using backup tapes. These Microsoft Exchange Servers, also referred to as email servers, are comprised of hundreds of hard drives that are placed into server racks.    Up until May 2011, the email server that handled Lois Lerner's email traffic was located in New Carrollton, Maryland, Federal Building. During 2011, the IRS migrated from the email server at New Carrollton to a new email server located at the IRS's Martinsburg, West Virginia, Computing Center.    After the IRS migrated its email system to Martinsburg, the IRS turned off the email server at New Carrollton. However, the server was left in place, possibly as a precautionary measure should the new email servers at Martinsburg fail. IRS employees reported that the New Carrollton email server hard drives were later removed from the server, erased, and destroyed.    On June 30, 2014, TIGTA demanded that the IRS provide all backup tapes used to back up Ms. Lerner's IRS email account--specifically, all backup tapes used for emails during the time period of January 1, 2008, through December 31, 2011. These date ranges were selected to ensure that we obtained any overlap emails or accounted for midyear equipment changes.    As a result of this demand, on July 1, 2014, the IRS identified the 744 backup tapes that met this criterion, and TIGTA took possession of all of the identified 744 backup tapes.    With regard to 9 of the 744 backup tapes, based on how they were configured in the backup machine, the IRS was unable to determine the dates they were used. Because of this, IRS technicians believed it was possible that these nine tapes had been untouched for years and, thus, could contain clear data relevant to the investigation.    Because TIGTA did not have the unique and necessary hardware, these nine tapes were provided to the Federal Bureau of Investigation in order to determine if the tapes contained any data and, if they did, to retrieve it. After the FBI analyzed the nine tapes and validated their equipment by reviewing other random backup tapes, they reported their equipment was functioning properly and they reported the nine tapes were, in fact, blank.    TIGTA then provided those same nine tapes to a recognized industry leader on electronic data recovery, and they confirmed the nine tapes were, in fact, blank.    After confirming these initial 9 tapes were blank and fearing that the remaining 735 tapes were overwritten, TIGTA interviewed the IRS email expert and identified the specific backup tapes that would have contained the earliest copies of Lois Lerner's email box.    The backup tapes consisted of five sets of tapes. These five backup sets were created sequential weeks from November 20, 2012, through December 25 of 2012. The five backup sets were expected to produce a total of five separate copies of Lois Lerner's email boxes or one copy for each week of the backup.    We hand-carried three of the five sets of these backup tapes to the industry expert for data recovery and extraction, and, after their examination and extraction of data, they provided TIGTA with the Exchange data base files from this set of tapes.    On November 13 of 2014, TIGTA searched the data base files and identified the first Lois Lerner email box. This email box contained Lois Lerner emails that date back as far as 2001. The result of this effort validated that the tapes have not been overwritten, and they contained emails that are relevant to the requested time-range search for emails.    TIGTA then processed the remaining five backup sets for a--the relevant requested--I'm sorry. TIGTA then processed the remaining sets of backup tapes in the same manner, later finding that each of the five backup sets contained one Lois Lerner email box, for a total of five email boxes, exactly as expected.    At the conclusion of this process, TIGTA identified 79,840 Lois Lerner emails, of which almost 60 percent were duplicates. Removing the duplicates resulted in 32,774 Lois Lerner unique emails.    It is critically important to note that these 32,774 emails need to be compared with the emails and documents the IRS has already produced to Congress in order to determine if there are any newly identified emails. Currently, we are finalizing the procurement of the software to accomplish this match.    As I noted earlier in my testimony, the IRS email system routes email messages through email servers that are comprised of hundreds of hard drives. I just completed my testimony about the status of our examination of the backup tapes associated with the email system, and now I want to discuss the status of the hard drives that were in the email server in May 2011, 1 month prior to when Lois Lerner's laptop hard drive crashed.    On July 11 of 2014, TIGTA discovered that the hard drives from the decommissioned New Carrollton email server were not destroyed as previously reported by the IRS. On the same day, TIGTA secured the 760 hard drives that are believed to be part of the old New Carrollton email server.    TIGTA conducted a preliminary examination of the limited selection of hard drives, and we determined that, based on the information that could be seen from these hard drives, these drives are more than likely the email server drives that processed Lois Lerner's emails in 2011 and prior.    It is important to note that the email servers process and keep copies of email traffic on hundreds of drives that are specifically positioned in server racks. The IRS did not retain a copy of the layout indicating where each of the specific hard drives was positioned in the racks. Without understanding the exact order in which the hard drives were placed in the server racks, finding any complete and relevant emails would be very difficult and labor-intensive, if not impossible. In addition, if any of the hard drives are damaged, it could potentially be impossible to recover any useable emails.    We recently determined that we were unable to do anything further with the hard drives, and we have initiated the process to contract for an initial feasibility analysis of the 760 hard drives by a recognized industry expert in electronic data recovery.    Less than 2 weeks ago, we also learned that there may have been backup tapes older than the original 744 backup tapes we obtained in July 2014. We have taken possession of an additional 424 tapes, and we are in the early stages of understanding if they have been erased and if any of these older tapes contain emails or data of interest to the investigation.    In summary, to date, we have found 32,774 unique emails that were backed up from Lois Lerner's email box. We are in the process of comparing these emails to what the IRS has already produced to Congress to determine if we did, in fact, recover any new emails. We also are in the process of having the email server hard drives analyzed to determine if there are any readable emails that can be recovered from these hard drives. And, finally, we are continuing to determine if there are any other sources that may contain Lois Lerner emails.    As I noted earlier, this is an ongoing investigation, and I have provided the information that I believe will not hinder our ability to continue our investigation, while simultaneously providing the Congress with the progress on the email search.    Thank you.</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the chair, and I thank the ranking member.    And, boy, can I relate to your frustration, Mr. Chairman, asking for a document and not being given it. Why, Mr. Cartwright and I have asked for a simple document from Mr. George himself.    Mr. George, on February 5, 2014, we filed a complaint against you with the Integrity Committee of the Council of IGs raising serious concerns over the troubling activities of your office under your leadership: publishing incomplete and misleading findings, engaging in partisan activities, meeting solely with Republicans on this committee, excluding Democrats, and allowing it to determine the scope of your audit.    On September 17, I requested a copy of your response to the contents raised in our letter--September 17, 5 months ago. The next day, your counsel assured our staff in an email you would respond to the request. To this date, you have not responded to the request.    I really sympathize with the chairman's frustration of not getting documents. We didn't subpoena you, but your office assured us we'd get a copy. Where is the copy of your response to our complaint before the Integrity Committee of CIGIE?</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman, and thank you for following up.    It looks like we've been lied to or at least misled. As recently as February 11, Commissioner Koskinen, the IRS Commissioner, came before us again, and he repeatedly Stated that the emails were not recoverable.    Now, they have known for some time that some of these were recoverable. Is that correct, Mr. George?</t>
   </si>
   <si>
@@ -391,9 +373,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. I thank the witnesses and the chairman and the ranking member for calling this hearing.    Mr. Camus, I would like to walk through how you found these additional emails and clarify exactly what they might contain.    Originally, there were reports that there were 80,000 new Lois Lerner emails, but now you're saying that the number is closer to 32,000. So can you explain how the number went from 80,000 to 32,000?</t>
   </si>
   <si>
@@ -508,9 +487,6 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. I thank the chairman.    Mr. Camus, we learned from John Koskinen and the IRS that they had lost the backup tapes, or that the backup tapes no longer existed, when we got a letter--well, the letter went to the Senate Finance Committee, but that's when we learned, that's when the American people learned.    When did you learn? When did the IRS tell you that the backup tapes didn't exist?</t>
   </si>
   <si>
@@ -634,9 +610,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    And I want to thank Mr. George and Mr. Camus for your help tonight, although I have serious misgivings about doing this hearing halfway through an audit. And I know in your precatory address you talked about that.    And I have to ask both of you, do you typically do a hearing like this halfway through an audit, when you're not complete, when you know that things could change, as you said?</t>
   </si>
   <si>
@@ -709,9 +682,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman.    And I thank you for continuing this investigation. I think they doth protest too much. And the gyrations that are going on, trying to indicate that we are premature, my gracious, if this is premature, I'd hate to see what delayed is.    This is our responsibility, Mr. Chairman--and thank you--to do oversight, to continue to push to get to the answers. 32,000, they may all be duplicates, but we should have had those. We should have 80,000. We have the responsibility and the right to have those. And I appreciate the work that's being done here.    I mean, we're still talking about citizens who have been attacked by their government. Their IRS intimidated. Even to this day, it's still going on. These are people we can't forget.    ``If you say the targeting issues have been resolved, how come we still haven't received a determination one way or the other?'', asked Rick Harbaugh, leader of the Albuquerque Tea Party, which has been waiting 5 years for its tax exemption. ``We are still being targeted.'' That's in their mind. And so it's good work we're doing here.    In May 2013, the DOJ announced that it would be conducting an independent investigation of the IRS targeting in conjunction with the Treasury Inspector General for Tax Administration, you folks. At the 2013 press conference where Holder made the announcement, he said, ``Those were, I think as everyone can agree, if not criminal, they were certainly outrageous and unacceptable. But we're examining the facts to see if there were criminal violations.'' Good.    But a DOJ official involved in the investigation, who is doing this at Eric Holder's behest, was Barbara Bosserman, who contributed the maximum amount to President Obama's campaign.    The DOJ leaked last year that it did not anticipate any criminal charges being filed. And, earlier this year, February 13, to be exact, our Attorney General, Eric Holder, said, ``I'm satisfied with the progress that the Criminal Division has done. The Civil Rights Division, as well. I expect that we will have some final recommendations coming up relatively soon.''    Well, if that's the case, then it is important that we do these studies, these questioning right now.    Let me ask Mr. George and Mr. Camus, is TIGTA still participating in the DOJ's investigation of the targeting of conservative nonprofit groups?</t>
   </si>
   <si>
@@ -769,9 +739,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. I thank the gentleman.    I recognize the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    Mr. George, in case you or anyone listening does not fully understand why Mr. Connolly and I have filed a complaint against you, here's the beef.    The Council of the Inspectors General on Integrity and Efficiency, or CIGIE, is the organizing entity for IGs across Federal agencies. They issue a handbook for IGs like you on how to conduct investigations in a nonpartisan manner. This is what the handbook says about discussing ongoing investigations with Congress, ``IGs should avoid any appearance of partisanship in such engagements. Bipartisan meetings and outreach is the most appropriate format for such OIG meetings.''    What is troubling to me is that, during this investigation, you and your staff have engaged in a series of activities that contradict this clear guidance.    At the beginning of this investigation more than 3 years ago, your staff held a private meeting with Republican staff working for former Chairman Darrell Issa of this committee--that meeting occurred on March 8, 2012--during which your staff discussed the scope of the investigation. Democrats were not invited, were not informed, and did not participate.    On July 11, a few months later, you sent a private letter to former Chairman Issa confirming these events. This is what you wrote, and I ``After our meeting, our Office of Audit recently began work on the issue. We would be happy to provide a status update to the subcommittee staff.'' You sent a copy of that letter to Representative Jordan, but you did not send a copy to any Democrats.    On May 15, 2013, you issued your report. So, right there, that means you worked over a year on your audit for this committee with the Democrats on this committee entirely in the dark--you, who are required to be bipartisan and not partisan.    So what did you write in the May 15, 2013, report? You talked about the BOLOs, you talked about the right-wing groups being targeted, but you did not reference any progressive groups that we know were subjected to similar treatment.    When you came before this committee on May 22, a week later, 2013, we asked why your report did not address progressive groups. You said, ``Because those groups did not have, again, the Be on the Lookout, 'Tea Party,' 'Patriot,' or 9/12' in their names.''    When we asked you about specific reports that the IRS was treating progressive groups similarly, you said this, ``I have subsequently received information that what you're indicating may have occurred, and, as a result, we will be conducting a followup review to determine whether or not that's the case.''    On July 18, 2013, you testified before this committee again. At that hearing, we showed you internal IRS documents indicating that progressive groups were subjected to this type of scrutiny and were also included on training materials. You said, ``We just learned about that recently, and that name was being used by the IRS. So, you know, as I indicated in my opening Statement, we just recently, last week, received new information that is disturbing and we need to pursue.'' So you testified it was disturbing that you did not discover these documents about progressive groups earlier.    But, about a month earlier, on June 23, 2013, your communications director Stated publicly that the reason for this was because you were only looking for Tea Party groups. She said Chairman Issa had directed you, ``to narrowly focus on Tea Party organizations.'' When you testified on July 18, 2013, you said she misspoke, your communications director misspoke. So, apparently, it was your office, on its own, deciding to focus only on conservative groups and not to review progressive groups.    On January 27, 2014, your staff held another meeting with Republican staff, and Democrats were excluded yet again. In fact, on February 4, Ranking Member Cummings wrote to complain about partisan activities and not including Democrats.    Nevertheless, these partisan activities have continued to this day. About a month ago, on January 22, your staff met privately with Chairman Chaffetz, Chairman Jordan, and others. There were no Democrats present. You did not inform the minority the meeting was going to happen. And it wasn't until 11 days later that your staff finally provided the minority with that briefing.    Mr. George, as you sit here today, this evening, are you aware that your IG handbook says, ``IGs should avoid any appearance of partisanship. In such engagements, bipartisan meetings and outreach is the most appropriate format for such OIG meetings''? Are you aware of that this evening?</t>
   </si>
   <si>
@@ -811,9 +778,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman.    And, Mr. George, I want you to take heart and I want you to be heartened by the fact that, when one side has good facts, they pound the facts, and when they have good law, they pound the law, and when they don't have either facts or law, then they like to pound the judge. And that's what we've been listening to tonight. I've heard more questions and tougher questions directed to you than I've heard directed to Lois Lerner. So I want you to take heart.    And we'll get back to this bipartisanship here toward the end, because I'd like to invite my friends from the other side of the aisle to write a letter to the Department of Justice. Speaking of the appearance of partisanship, we have a DOJ lawyer who contributed the maximum to the President, and that's who's supposed to be investigating.    So, perhaps, Mr. Chairman, we could have a letter, and we could get some Democrats to sign that letter with us, and we can ask the Department of Justice to update us on the status of the investigation and whether or not Ms. Bosserman is the right person to conduct that investigation.    However, Mr. Camus, I want to ask you this. Mr. Koskinen, Commissioner Koskinen, in June 2014, said that there was no evidence of criminal wrongdoing, which I found to be stunning because I was not aware previously that he was a criminal investigator. I thought he was the Commissioner of the IRS. So I think we both learned something that night.    He had conducted a full investigation and found no criminal wrongdoing, which I found also stunning because the Ways and Means Committee had made a criminal referral to the Department of Justice.    So, to the extent Mr. Koskinen is watching tonight, are there potential criminal statutes at play?</t>
   </si>
   <si>
@@ -874,9 +838,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Mr. Chair.    And thank you, Ranking Member.    Some of my colleagues--and many of you know that I'm a freshman Congresswoman, so this conversation has preceded me in the previous Congress. So I have some questions of timelines that I would like to validate.    Some of my colleagues continue to claim that there was ill intent surrounding Lois Lerner's computer crash, that she intentionally crashed it to conceal her emails. I just want to review the timeline.    And, Mr. George, Lois Lerner's computer crashed on June 13, 2011; is that correct?</t>
   </si>
   <si>
@@ -961,9 +922,6 @@
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman.    So, just to go over some of the stuff in your opening Statements, you said that you found 744 backup tapes, Mr. Camus?</t>
   </si>
   <si>
@@ -1066,9 +1024,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes, thank you, Chairman, Ranking Member.    And, gentlemen, good evening to you.    Mr. Chairman, Mr. Ranking Member, you know, I am a freshman, as well. And it is difficult for me, sitting here as a former prosecutor and a courtroom attorney, not to jump up and shout ``objection'' at a lot of the things that I've been hearing, which are in some instances hearsay and speculation, subjective conclusions that my colleagues are putting forward. It, quite frankly, is a little frightening for me to hear this without being able to say anything, but I'm learning, and so I will stick to how we are doing things here.    Mr. George, you made a Statement that it's important to keep Congress informed. And I find it a little questionable that you would keep Congress informed of facts that in testimony Mr. Camus has Stated previously changed from day to day and that may negatively impact the integrity of investigations as facts change from day to day, 1 day to the next--which, as a previous investigator, I understand that you must come to the full conclusion before you put something out there which may, in fact, change.    So, Mr. Camus, I wanted to ask you about the process that still needs to take place and that changing the narrative of investigations. I understand about the 32,000 emails which have already been produced to the Committee. And how long do you anticipate, after you've finished your analysis of the emails that you have, how long will that take, please? I think you may have Stated.</t>
   </si>
   <si>
@@ -1156,9 +1111,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    And thank each of you for being here.    I was talking to a gentleman from Kentucky the other day, Mr. Phillips, and he was asking me, well, why can't we just get all the emails from everybody else that communicated with Ms. Lois Lerner?    And I think just a few minutes ago you were saying there were five other people that were central to this investigation that we've lost their emails. Is that correct, Mr. Camus?</t>
   </si>
   <si>
@@ -1303,9 +1255,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Mr. Chairman, I ask unanimous consent that the following article be entered into the record. It responds to this Pinocchio claim about the letter that was sent by Dave Camp 10 days before Lois Lerner's hard-drive crash.</t>
   </si>
   <si>
@@ -1360,9 +1309,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    I imagine it's tough sometimes being on the other side of the panel but do appreciate it and certainly respect your forthrightness there, for both Mr. Camus and Mr. George.    I do want to target just a little bit Mr. George.    How long have you worked in this environment, whether it be an inspector general or just overall in the government?</t>
   </si>
   <si>
@@ -1420,9 +1366,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    And thank you all for being here. The hour is late. I know, if you're like me, you're tired. But let me, again, thank you for being here, and thank you specifically--it's never been the question in my mind whether or not it was--that it was duplicate material that you found, but, instead, the point is you found it.    So I want to talk about that specifically. What prompted you--were you asked to look for it?</t>
   </si>
   <si>
@@ -1501,9 +1444,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. OK. I think some of these questions may be a followup from what was asked before. They're really for Mr. Camus, but we'll go through them again.    Commissioner Koskinen testified that he had confirmed that Ms. Lerner's emails were unrecoverable. Have you had any findings so far regarding what the IRS did to confirm that information, that he would use the word that he had ``confirmed'' it?</t>
   </si>
   <si>
@@ -1547,9 +1487,6 @@
   </si>
   <si>
     <t>412608</t>
-  </si>
-  <si>
-    <t>Gary J. Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. I'm the guy you're looking for, the last one, I guess.    Mr. Camus, back in 2010--well, I guess it may have been 2013, information came out that indicated that Ms. Lerner had contacted the Department of Justice regarding the possibility of pursuing a criminal investigation into election crimes targeting 501(c)(4) organizations.    Do you know if any of the tapes contain the emails that would cover that?</t>
@@ -2077,11 +2014,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2101,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2129,11 +2062,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2153,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2181,11 +2110,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2205,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2233,11 +2158,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2257,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2285,11 +2206,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2311,11 +2230,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2335,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2363,11 +2278,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2387,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2415,11 +2326,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2439,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2467,11 +2374,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2491,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2519,11 +2422,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2543,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2571,11 +2470,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2595,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2623,11 +2518,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2647,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2675,11 +2566,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2699,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2727,11 +2614,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2751,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2779,11 +2662,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2803,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2831,11 +2710,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2855,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2883,11 +2758,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2907,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2935,11 +2806,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2959,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2987,11 +2854,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3011,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3039,11 +2902,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3063,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3089,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3115,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3141,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3167,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>57</v>
-      </c>
-      <c r="H44" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3193,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3219,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3247,11 +3094,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3271,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3299,11 +3142,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3323,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3349,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3375,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3401,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3427,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3453,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3479,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3505,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3531,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3557,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3583,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3609,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3635,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3661,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3687,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3715,11 +3526,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3739,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3765,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3791,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3817,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3843,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3869,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3895,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3921,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3947,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3973,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3999,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4025,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4051,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4077,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4103,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4129,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4155,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4181,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4207,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4233,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4259,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4285,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4311,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4337,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4363,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4389,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4415,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4441,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4467,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>84</v>
-      </c>
-      <c r="G94" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4493,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4519,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
-      </c>
-      <c r="G96" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4545,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4571,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>84</v>
-      </c>
-      <c r="G98" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4597,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4623,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>84</v>
-      </c>
-      <c r="G100" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4649,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4675,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
-      </c>
-      <c r="G102" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4701,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4727,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>84</v>
-      </c>
-      <c r="G104" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4753,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4779,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>84</v>
-      </c>
-      <c r="G106" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4807,11 +4534,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4831,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4857,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4883,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4909,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4935,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4961,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4987,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>118</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
-      <c r="H114" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5013,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5039,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5065,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5091,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
-      </c>
-      <c r="G118" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5117,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5143,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5169,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5195,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>124</v>
-      </c>
-      <c r="G122" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5221,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5247,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>124</v>
-      </c>
-      <c r="G124" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5273,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5299,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>124</v>
-      </c>
-      <c r="G126" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5325,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5351,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>124</v>
-      </c>
-      <c r="G128" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5377,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5403,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
-      </c>
-      <c r="G130" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5429,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5455,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>124</v>
-      </c>
-      <c r="G132" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5481,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5507,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>124</v>
-      </c>
-      <c r="G134" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5533,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5559,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>124</v>
-      </c>
-      <c r="G136" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5585,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5611,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>124</v>
-      </c>
-      <c r="G138" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5637,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5663,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>124</v>
-      </c>
-      <c r="G140" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5689,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5715,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>124</v>
-      </c>
-      <c r="G142" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5741,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5767,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>124</v>
-      </c>
-      <c r="G144" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5793,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5819,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5845,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5873,11 +5518,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5897,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>124</v>
-      </c>
-      <c r="G149" t="s">
-        <v>125</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5925,11 +5566,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5949,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>163</v>
-      </c>
-      <c r="G151" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5975,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6001,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
-      </c>
-      <c r="G153" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6027,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6053,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G155" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6079,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6105,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
+        <v>156</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>163</v>
-      </c>
-      <c r="G157" t="s">
-        <v>164</v>
-      </c>
-      <c r="H157" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6131,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6157,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>163</v>
-      </c>
-      <c r="G159" t="s">
+        <v>156</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
         <v>164</v>
-      </c>
-      <c r="H159" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6183,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6209,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>163</v>
-      </c>
-      <c r="G161" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6235,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6261,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>163</v>
-      </c>
-      <c r="G163" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6287,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6313,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>163</v>
-      </c>
-      <c r="G165" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6339,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6365,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>163</v>
-      </c>
-      <c r="G167" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6391,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6417,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>163</v>
-      </c>
-      <c r="G169" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6443,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6469,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>163</v>
-      </c>
-      <c r="G171" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6495,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6521,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>163</v>
-      </c>
-      <c r="G173" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6547,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6573,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>163</v>
-      </c>
-      <c r="G175" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6599,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6625,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>163</v>
-      </c>
-      <c r="G177" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6651,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6677,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>163</v>
-      </c>
-      <c r="G179" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6703,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6729,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>163</v>
-      </c>
-      <c r="G181" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6755,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6781,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>163</v>
-      </c>
-      <c r="G183" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6807,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6833,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>163</v>
-      </c>
-      <c r="G185" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6859,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6885,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>163</v>
-      </c>
-      <c r="G187" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6911,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6937,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>163</v>
-      </c>
-      <c r="G189" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6963,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6989,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>163</v>
-      </c>
-      <c r="G191" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7017,11 +6574,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7041,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>163</v>
-      </c>
-      <c r="G193" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7069,11 +6622,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7093,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>205</v>
-      </c>
-      <c r="G195" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7119,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7145,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>205</v>
-      </c>
-      <c r="G197" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7171,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7197,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>205</v>
-      </c>
-      <c r="G199" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7223,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7249,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7275,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
+        <v>197</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
         <v>205</v>
-      </c>
-      <c r="G202" t="s">
-        <v>206</v>
-      </c>
-      <c r="H202" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7301,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7327,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>205</v>
-      </c>
-      <c r="G204" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7353,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7379,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>205</v>
-      </c>
-      <c r="G206" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7405,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7431,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>205</v>
-      </c>
-      <c r="G208" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7457,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7483,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>205</v>
-      </c>
-      <c r="G210" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7509,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7535,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>205</v>
-      </c>
-      <c r="G212" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7561,13 +7076,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7587,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>205</v>
-      </c>
-      <c r="G214" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7613,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7639,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>205</v>
-      </c>
-      <c r="G216" t="s">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7667,11 +7174,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7691,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>230</v>
-      </c>
-      <c r="G218" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7717,13 +7220,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7743,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>230</v>
-      </c>
-      <c r="G220" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7769,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7795,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>230</v>
-      </c>
-      <c r="G222" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7821,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7847,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>230</v>
-      </c>
-      <c r="G224" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7873,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7899,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
+        <v>221</v>
+      </c>
+      <c r="G226" t="s"/>
+      <c r="H226" t="s">
         <v>230</v>
-      </c>
-      <c r="G226" t="s">
-        <v>231</v>
-      </c>
-      <c r="H226" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7925,13 +7412,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7951,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>230</v>
-      </c>
-      <c r="G228" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7977,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8003,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>230</v>
-      </c>
-      <c r="G230" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8029,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8055,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>230</v>
-      </c>
-      <c r="G232" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8081,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8107,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>230</v>
-      </c>
-      <c r="G234" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8133,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8159,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>230</v>
-      </c>
-      <c r="G236" t="s">
-        <v>231</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8187,11 +7654,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8211,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" t="s">
-        <v>251</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8239,11 +7702,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8263,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8289,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>251</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8315,13 +7772,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8341,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>251</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8369,11 +7822,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8393,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>251</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8421,11 +7870,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8445,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8473,11 +7918,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8497,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
+      <c r="H249" t="s">
         <v>251</v>
-      </c>
-      <c r="H249" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8525,11 +7966,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8549,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>264</v>
-      </c>
-      <c r="G251" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8575,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8601,13 +8036,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>264</v>
-      </c>
-      <c r="G253" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8627,13 +8060,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>18</v>
-      </c>
-      <c r="G254" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8653,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>264</v>
-      </c>
-      <c r="G255" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8679,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>18</v>
-      </c>
-      <c r="G256" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8705,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>264</v>
-      </c>
-      <c r="G257" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8731,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8757,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>264</v>
-      </c>
-      <c r="G259" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8783,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>56</v>
-      </c>
-      <c r="G260" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8809,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>264</v>
-      </c>
-      <c r="G261" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8837,11 +8254,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8861,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>264</v>
-      </c>
-      <c r="G263" t="s">
+        <v>253</v>
+      </c>
+      <c r="G263" t="s"/>
+      <c r="H263" t="s">
         <v>265</v>
-      </c>
-      <c r="H263" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8887,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>56</v>
-      </c>
-      <c r="G264" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8913,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>264</v>
-      </c>
-      <c r="G265" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8939,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>56</v>
-      </c>
-      <c r="G266" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8965,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>264</v>
-      </c>
-      <c r="G267" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8991,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>56</v>
-      </c>
-      <c r="G268" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9017,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>264</v>
-      </c>
-      <c r="G269" t="s">
-        <v>265</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9045,11 +8446,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9069,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>285</v>
-      </c>
-      <c r="G271" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9095,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
-      </c>
-      <c r="G272" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9121,13 +8516,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>285</v>
-      </c>
-      <c r="G273" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9147,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9173,13 +8564,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>285</v>
-      </c>
-      <c r="G275" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9199,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9225,13 +8612,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>285</v>
-      </c>
-      <c r="G277" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9251,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9277,13 +8660,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>285</v>
-      </c>
-      <c r="G279" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9303,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>18</v>
-      </c>
-      <c r="G280" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9329,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>285</v>
-      </c>
-      <c r="G281" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9355,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>18</v>
-      </c>
-      <c r="G282" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9381,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>18</v>
-      </c>
-      <c r="G283" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9407,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>285</v>
-      </c>
-      <c r="G284" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9433,13 +8804,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>18</v>
-      </c>
-      <c r="G285" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9459,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>285</v>
-      </c>
-      <c r="G286" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9485,13 +8852,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>18</v>
-      </c>
-      <c r="G287" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9511,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>285</v>
-      </c>
-      <c r="G288" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9537,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>18</v>
-      </c>
-      <c r="G289" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9563,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>285</v>
-      </c>
-      <c r="G290" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9589,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>18</v>
-      </c>
-      <c r="G291" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9615,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>285</v>
-      </c>
-      <c r="G292" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9641,13 +8996,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9669,11 +9022,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9693,13 +9044,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>285</v>
-      </c>
-      <c r="G295" t="s">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9719,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>18</v>
-      </c>
-      <c r="G296" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9747,11 +9094,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9771,13 +9116,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>314</v>
-      </c>
-      <c r="G298" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9797,13 +9140,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>18</v>
-      </c>
-      <c r="G299" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9823,13 +9164,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>314</v>
-      </c>
-      <c r="G300" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9849,13 +9188,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>18</v>
-      </c>
-      <c r="G301" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9875,13 +9212,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>314</v>
-      </c>
-      <c r="G302" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9901,13 +9236,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>18</v>
-      </c>
-      <c r="G303" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9927,13 +9260,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>314</v>
-      </c>
-      <c r="G304" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9953,13 +9284,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>18</v>
-      </c>
-      <c r="G305" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9979,13 +9308,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>314</v>
-      </c>
-      <c r="G306" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10005,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>18</v>
-      </c>
-      <c r="G307" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10031,13 +9356,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>314</v>
-      </c>
-      <c r="G308" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10057,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>18</v>
-      </c>
-      <c r="G309" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10083,13 +9404,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>314</v>
-      </c>
-      <c r="G310" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10109,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>18</v>
-      </c>
-      <c r="G311" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10135,13 +9452,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
+        <v>301</v>
+      </c>
+      <c r="G312" t="s"/>
+      <c r="H312" t="s">
         <v>314</v>
-      </c>
-      <c r="G312" t="s">
-        <v>315</v>
-      </c>
-      <c r="H312" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10161,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>18</v>
-      </c>
-      <c r="G313" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10187,13 +9500,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>314</v>
-      </c>
-      <c r="G314" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10213,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>18</v>
-      </c>
-      <c r="G315" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10239,13 +9548,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>314</v>
-      </c>
-      <c r="G316" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10265,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>18</v>
-      </c>
-      <c r="G317" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10291,13 +9596,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>314</v>
-      </c>
-      <c r="G318" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10317,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>18</v>
-      </c>
-      <c r="G319" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10343,13 +9644,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>314</v>
-      </c>
-      <c r="G320" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10369,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>18</v>
-      </c>
-      <c r="G321" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10395,13 +9692,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>314</v>
-      </c>
-      <c r="G322" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10421,13 +9716,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>18</v>
-      </c>
-      <c r="G323" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10447,13 +9740,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>314</v>
-      </c>
-      <c r="G324" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10473,13 +9764,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>18</v>
-      </c>
-      <c r="G325" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10499,13 +9788,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>314</v>
-      </c>
-      <c r="G326" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10525,13 +9812,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>18</v>
-      </c>
-      <c r="G327" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10551,13 +9836,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>314</v>
-      </c>
-      <c r="G328" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10577,13 +9860,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>18</v>
-      </c>
-      <c r="G329" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10603,13 +9884,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>314</v>
-      </c>
-      <c r="G330" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10629,13 +9908,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>18</v>
-      </c>
-      <c r="G331" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10655,13 +9932,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>314</v>
-      </c>
-      <c r="G332" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10681,13 +9956,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>18</v>
-      </c>
-      <c r="G333" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10707,13 +9980,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>314</v>
-      </c>
-      <c r="G334" t="s">
-        <v>315</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10735,11 +10006,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10759,13 +10028,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>349</v>
-      </c>
-      <c r="G336" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10785,13 +10052,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>18</v>
-      </c>
-      <c r="G337" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10811,13 +10076,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>349</v>
-      </c>
-      <c r="G338" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10837,13 +10100,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>18</v>
-      </c>
-      <c r="G339" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10863,13 +10124,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>349</v>
-      </c>
-      <c r="G340" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10889,13 +10148,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>18</v>
-      </c>
-      <c r="G341" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10915,13 +10172,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>349</v>
-      </c>
-      <c r="G342" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10941,13 +10196,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>18</v>
-      </c>
-      <c r="G343" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10967,13 +10220,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>349</v>
-      </c>
-      <c r="G344" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10993,13 +10244,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>18</v>
-      </c>
-      <c r="G345" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11019,13 +10268,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>349</v>
-      </c>
-      <c r="G346" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11045,13 +10292,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>18</v>
-      </c>
-      <c r="G347" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11071,13 +10316,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>349</v>
-      </c>
-      <c r="G348" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11097,13 +10340,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>18</v>
-      </c>
-      <c r="G349" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11123,13 +10364,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>349</v>
-      </c>
-      <c r="G350" t="s">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11149,13 +10388,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>18</v>
-      </c>
-      <c r="G351" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11175,13 +10412,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
+        <v>335</v>
+      </c>
+      <c r="G352" t="s"/>
+      <c r="H352" t="s">
         <v>349</v>
-      </c>
-      <c r="G352" t="s">
-        <v>350</v>
-      </c>
-      <c r="H352" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11201,13 +10436,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>14</v>
-      </c>
-      <c r="G353" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11227,13 +10460,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>349</v>
-      </c>
-      <c r="G354" t="s">
+        <v>335</v>
+      </c>
+      <c r="G354" t="s"/>
+      <c r="H354" t="s">
         <v>350</v>
-      </c>
-      <c r="H354" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11253,13 +10484,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>14</v>
-      </c>
-      <c r="G355" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11279,13 +10508,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>18</v>
-      </c>
-      <c r="G356" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11305,13 +10532,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>14</v>
-      </c>
-      <c r="G357" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11331,13 +10556,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>18</v>
-      </c>
-      <c r="G358" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11357,13 +10580,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>14</v>
-      </c>
-      <c r="G359" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11383,13 +10604,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>18</v>
-      </c>
-      <c r="G360" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11409,13 +10628,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>14</v>
-      </c>
-      <c r="G361" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11435,13 +10652,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>18</v>
-      </c>
-      <c r="G362" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11461,13 +10676,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>14</v>
-      </c>
-      <c r="G363" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11489,11 +10702,9 @@
       <c r="F364" t="s">
         <v>11</v>
       </c>
-      <c r="G364" t="s">
-        <v>12</v>
-      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11513,13 +10724,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>18</v>
-      </c>
-      <c r="G365" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11541,11 +10750,9 @@
       <c r="F366" t="s">
         <v>11</v>
       </c>
-      <c r="G366" t="s">
-        <v>12</v>
-      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11565,13 +10772,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>18</v>
-      </c>
-      <c r="G367" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11593,11 +10798,9 @@
       <c r="F368" t="s">
         <v>11</v>
       </c>
-      <c r="G368" t="s">
-        <v>12</v>
-      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11617,13 +10820,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>379</v>
-      </c>
-      <c r="G369" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11643,13 +10844,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>18</v>
-      </c>
-      <c r="G370" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11669,13 +10868,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>379</v>
-      </c>
-      <c r="G371" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11695,13 +10892,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>18</v>
-      </c>
-      <c r="G372" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11721,13 +10916,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>379</v>
-      </c>
-      <c r="G373" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11747,13 +10940,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>18</v>
-      </c>
-      <c r="G374" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11773,13 +10964,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>379</v>
-      </c>
-      <c r="G375" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11799,13 +10988,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>18</v>
-      </c>
-      <c r="G376" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11825,13 +11012,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>379</v>
-      </c>
-      <c r="G377" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11851,13 +11036,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>18</v>
-      </c>
-      <c r="G378" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11877,13 +11060,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>379</v>
-      </c>
-      <c r="G379" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11903,13 +11084,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>18</v>
-      </c>
-      <c r="G380" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11929,13 +11108,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>379</v>
-      </c>
-      <c r="G381" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11955,13 +11132,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>18</v>
-      </c>
-      <c r="G382" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11981,13 +11156,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>379</v>
-      </c>
-      <c r="G383" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12007,13 +11180,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>18</v>
-      </c>
-      <c r="G384" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12033,13 +11204,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>379</v>
-      </c>
-      <c r="G385" t="s">
+        <v>364</v>
+      </c>
+      <c r="G385" t="s"/>
+      <c r="H385" t="s">
         <v>380</v>
-      </c>
-      <c r="H385" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12059,13 +11228,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>18</v>
-      </c>
-      <c r="G386" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12085,13 +11252,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>379</v>
-      </c>
-      <c r="G387" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12111,13 +11276,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>18</v>
-      </c>
-      <c r="G388" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12137,13 +11300,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>379</v>
-      </c>
-      <c r="G389" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12163,13 +11324,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>18</v>
-      </c>
-      <c r="G390" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12189,13 +11348,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>379</v>
-      </c>
-      <c r="G391" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12215,13 +11372,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>18</v>
-      </c>
-      <c r="G392" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12241,13 +11396,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>379</v>
-      </c>
-      <c r="G393" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12267,13 +11420,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>18</v>
-      </c>
-      <c r="G394" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12293,13 +11444,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>379</v>
-      </c>
-      <c r="G395" t="s">
-        <v>380</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12321,11 +11470,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>12</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12345,13 +11492,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>14</v>
-      </c>
-      <c r="G397" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12373,11 +11518,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>12</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12397,13 +11540,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>14</v>
-      </c>
-      <c r="G399" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12423,13 +11564,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>18</v>
-      </c>
-      <c r="G400" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12449,13 +11588,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>14</v>
-      </c>
-      <c r="G401" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12475,13 +11612,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>18</v>
-      </c>
-      <c r="G402" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12501,13 +11636,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>14</v>
-      </c>
-      <c r="G403" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12527,13 +11660,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>18</v>
-      </c>
-      <c r="G404" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12553,13 +11684,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>14</v>
-      </c>
-      <c r="G405" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12579,13 +11708,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>18</v>
-      </c>
-      <c r="G406" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12605,13 +11732,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>14</v>
-      </c>
-      <c r="G407" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12631,13 +11756,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>18</v>
-      </c>
-      <c r="G408" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12659,11 +11782,9 @@
       <c r="F409" t="s">
         <v>11</v>
       </c>
-      <c r="G409" t="s">
-        <v>12</v>
-      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12683,13 +11804,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>14</v>
-      </c>
-      <c r="G410" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12709,13 +11828,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>18</v>
-      </c>
-      <c r="G411" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12735,13 +11852,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>14</v>
-      </c>
-      <c r="G412" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12761,13 +11876,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>18</v>
-      </c>
-      <c r="G413" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12789,11 +11902,9 @@
       <c r="F414" t="s">
         <v>11</v>
       </c>
-      <c r="G414" t="s">
-        <v>12</v>
-      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12813,13 +11924,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>14</v>
-      </c>
-      <c r="G415" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12841,11 +11950,9 @@
       <c r="F416" t="s">
         <v>11</v>
       </c>
-      <c r="G416" t="s">
-        <v>12</v>
-      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12865,13 +11972,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>14</v>
-      </c>
-      <c r="G417" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12893,11 +11998,9 @@
       <c r="F418" t="s">
         <v>11</v>
       </c>
-      <c r="G418" t="s">
-        <v>12</v>
-      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12917,13 +12020,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>428</v>
-      </c>
-      <c r="G419" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12945,11 +12046,9 @@
       <c r="F420" t="s">
         <v>11</v>
       </c>
-      <c r="G420" t="s">
-        <v>12</v>
-      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12969,13 +12068,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>18</v>
-      </c>
-      <c r="G421" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12995,13 +12092,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>428</v>
-      </c>
-      <c r="G422" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13021,13 +12116,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>18</v>
-      </c>
-      <c r="G423" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13047,13 +12140,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>428</v>
-      </c>
-      <c r="G424" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13073,13 +12164,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>18</v>
-      </c>
-      <c r="G425" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13099,13 +12188,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>428</v>
-      </c>
-      <c r="G426" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13125,13 +12212,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>18</v>
-      </c>
-      <c r="G427" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13151,13 +12236,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>428</v>
-      </c>
-      <c r="G428" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13177,13 +12260,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>18</v>
-      </c>
-      <c r="G429" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13203,13 +12284,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>428</v>
-      </c>
-      <c r="G430" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13229,13 +12308,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>18</v>
-      </c>
-      <c r="G431" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13255,13 +12332,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>428</v>
-      </c>
-      <c r="G432" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13281,13 +12356,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>18</v>
-      </c>
-      <c r="G433" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13307,13 +12380,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>428</v>
-      </c>
-      <c r="G434" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13333,13 +12404,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>18</v>
-      </c>
-      <c r="G435" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13359,13 +12428,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
+        <v>412</v>
+      </c>
+      <c r="G436" t="s"/>
+      <c r="H436" t="s">
         <v>428</v>
-      </c>
-      <c r="G436" t="s">
-        <v>429</v>
-      </c>
-      <c r="H436" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13387,11 +12454,9 @@
       <c r="F437" t="s">
         <v>11</v>
       </c>
-      <c r="G437" t="s">
-        <v>12</v>
-      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13411,13 +12476,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>447</v>
-      </c>
-      <c r="G438" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13437,13 +12500,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>18</v>
-      </c>
-      <c r="G439" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13463,13 +12524,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>447</v>
-      </c>
-      <c r="G440" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13489,13 +12548,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>18</v>
-      </c>
-      <c r="G441" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13515,13 +12572,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>447</v>
-      </c>
-      <c r="G442" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13541,13 +12596,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>18</v>
-      </c>
-      <c r="G443" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13567,13 +12620,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>447</v>
-      </c>
-      <c r="G444" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13593,13 +12644,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>18</v>
-      </c>
-      <c r="G445" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13619,13 +12668,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>447</v>
-      </c>
-      <c r="G446" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13645,13 +12692,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>18</v>
-      </c>
-      <c r="G447" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13671,13 +12716,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>447</v>
-      </c>
-      <c r="G448" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13697,13 +12740,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>18</v>
-      </c>
-      <c r="G449" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13723,13 +12764,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>447</v>
-      </c>
-      <c r="G450" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13749,13 +12788,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>18</v>
-      </c>
-      <c r="G451" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13775,13 +12812,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>447</v>
-      </c>
-      <c r="G452" t="s">
-        <v>448</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13801,13 +12836,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>18</v>
-      </c>
-      <c r="G453" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13827,13 +12860,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
+        <v>430</v>
+      </c>
+      <c r="G454" t="s"/>
+      <c r="H454" t="s">
         <v>447</v>
-      </c>
-      <c r="G454" t="s">
-        <v>448</v>
-      </c>
-      <c r="H454" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13855,11 +12886,9 @@
       <c r="F455" t="s">
         <v>11</v>
       </c>
-      <c r="G455" t="s">
-        <v>12</v>
-      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13879,13 +12908,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>467</v>
-      </c>
-      <c r="G456" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13905,13 +12932,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>18</v>
-      </c>
-      <c r="G457" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13931,13 +12956,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>467</v>
-      </c>
-      <c r="G458" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13957,13 +12980,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>18</v>
-      </c>
-      <c r="G459" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13983,13 +13004,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>467</v>
-      </c>
-      <c r="G460" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14009,13 +13028,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>18</v>
-      </c>
-      <c r="G461" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14035,13 +13052,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>467</v>
-      </c>
-      <c r="G462" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14061,13 +13076,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>18</v>
-      </c>
-      <c r="G463" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14087,13 +13100,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>467</v>
-      </c>
-      <c r="G464" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14113,13 +13124,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>18</v>
-      </c>
-      <c r="G465" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14139,13 +13148,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>467</v>
-      </c>
-      <c r="G466" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14165,13 +13172,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>18</v>
-      </c>
-      <c r="G467" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14191,13 +13196,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>467</v>
-      </c>
-      <c r="G468" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14217,13 +13220,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>18</v>
-      </c>
-      <c r="G469" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14243,13 +13244,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>467</v>
-      </c>
-      <c r="G470" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14269,13 +13268,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>18</v>
-      </c>
-      <c r="G471" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14295,13 +13292,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>467</v>
-      </c>
-      <c r="G472" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14321,13 +13316,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>18</v>
-      </c>
-      <c r="G473" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14347,13 +13340,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>467</v>
-      </c>
-      <c r="G474" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14373,13 +13364,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>18</v>
-      </c>
-      <c r="G475" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14399,13 +13388,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>467</v>
-      </c>
-      <c r="G476" t="s">
+        <v>449</v>
+      </c>
+      <c r="G476" t="s"/>
+      <c r="H476" t="s">
         <v>468</v>
-      </c>
-      <c r="H476" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14425,13 +13412,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>18</v>
-      </c>
-      <c r="G477" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14451,13 +13436,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>467</v>
-      </c>
-      <c r="G478" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14477,13 +13460,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>18</v>
-      </c>
-      <c r="G479" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14503,13 +13484,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>467</v>
-      </c>
-      <c r="G480" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14529,13 +13508,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>18</v>
-      </c>
-      <c r="G481" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14555,13 +13532,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>467</v>
-      </c>
-      <c r="G482" t="s">
-        <v>468</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14583,11 +13558,9 @@
       <c r="F483" t="s">
         <v>11</v>
       </c>
-      <c r="G483" t="s">
-        <v>12</v>
-      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14607,13 +13580,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>494</v>
-      </c>
-      <c r="G484" t="s">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14633,13 +13604,11 @@
         <v>10</v>
       </c>
       <c r="F485" t="s">
-        <v>18</v>
-      </c>
-      <c r="G485" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14659,13 +13628,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>494</v>
-      </c>
-      <c r="G486" t="s">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14685,13 +13652,11 @@
         <v>10</v>
       </c>
       <c r="F487" t="s">
-        <v>18</v>
-      </c>
-      <c r="G487" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14711,13 +13676,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>494</v>
-      </c>
-      <c r="G488" t="s">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14737,13 +13700,11 @@
         <v>10</v>
       </c>
       <c r="F489" t="s">
-        <v>18</v>
-      </c>
-      <c r="G489" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14763,13 +13724,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>494</v>
-      </c>
-      <c r="G490" t="s">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14789,13 +13748,11 @@
         <v>10</v>
       </c>
       <c r="F491" t="s">
-        <v>18</v>
-      </c>
-      <c r="G491" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14815,13 +13772,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>494</v>
-      </c>
-      <c r="G492" t="s">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14841,13 +13796,11 @@
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>18</v>
-      </c>
-      <c r="G493" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14867,13 +13820,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>494</v>
-      </c>
-      <c r="G494" t="s">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14893,13 +13844,11 @@
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>18</v>
-      </c>
-      <c r="G495" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14919,13 +13868,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>494</v>
-      </c>
-      <c r="G496" t="s">
-        <v>495</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14947,11 +13894,9 @@
       <c r="F497" t="s">
         <v>11</v>
       </c>
-      <c r="G497" t="s">
-        <v>12</v>
-      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14971,13 +13916,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>510</v>
-      </c>
-      <c r="G498" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14997,13 +13940,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>18</v>
-      </c>
-      <c r="G499" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15023,13 +13964,11 @@
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>510</v>
-      </c>
-      <c r="G500" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15049,13 +13988,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>18</v>
-      </c>
-      <c r="G501" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15075,13 +14012,11 @@
         <v>10</v>
       </c>
       <c r="F502" t="s">
-        <v>510</v>
-      </c>
-      <c r="G502" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15101,13 +14036,11 @@
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>18</v>
-      </c>
-      <c r="G503" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15127,13 +14060,11 @@
         <v>10</v>
       </c>
       <c r="F504" t="s">
-        <v>510</v>
-      </c>
-      <c r="G504" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G504" t="s"/>
       <c r="H504" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15153,13 +14084,11 @@
         <v>10</v>
       </c>
       <c r="F505" t="s">
-        <v>18</v>
-      </c>
-      <c r="G505" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G505" t="s"/>
       <c r="H505" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15179,13 +14108,11 @@
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>18</v>
-      </c>
-      <c r="G506" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G506" t="s"/>
       <c r="H506" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15205,13 +14132,11 @@
         <v>10</v>
       </c>
       <c r="F507" t="s">
-        <v>510</v>
-      </c>
-      <c r="G507" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G507" t="s"/>
       <c r="H507" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15231,13 +14156,11 @@
         <v>10</v>
       </c>
       <c r="F508" t="s">
-        <v>18</v>
-      </c>
-      <c r="G508" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G508" t="s"/>
       <c r="H508" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15257,13 +14180,11 @@
         <v>10</v>
       </c>
       <c r="F509" t="s">
-        <v>510</v>
-      </c>
-      <c r="G509" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G509" t="s"/>
       <c r="H509" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15283,13 +14204,11 @@
         <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>18</v>
-      </c>
-      <c r="G510" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G510" t="s"/>
       <c r="H510" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15309,13 +14228,11 @@
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>510</v>
-      </c>
-      <c r="G511" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G511" t="s"/>
       <c r="H511" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15335,13 +14252,11 @@
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>18</v>
-      </c>
-      <c r="G512" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G512" t="s"/>
       <c r="H512" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15361,13 +14276,11 @@
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>510</v>
-      </c>
-      <c r="G513" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G513" t="s"/>
       <c r="H513" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15387,13 +14300,11 @@
         <v>10</v>
       </c>
       <c r="F514" t="s">
-        <v>18</v>
-      </c>
-      <c r="G514" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G514" t="s"/>
       <c r="H514" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15413,13 +14324,11 @@
         <v>10</v>
       </c>
       <c r="F515" t="s">
-        <v>510</v>
-      </c>
-      <c r="G515" t="s">
-        <v>511</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G515" t="s"/>
       <c r="H515" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15441,11 +14350,9 @@
       <c r="F516" t="s">
         <v>11</v>
       </c>
-      <c r="G516" t="s">
-        <v>12</v>
-      </c>
+      <c r="G516" t="s"/>
       <c r="H516" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15465,13 +14372,11 @@
         <v>10</v>
       </c>
       <c r="F517" t="s">
-        <v>14</v>
-      </c>
-      <c r="G517" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G517" t="s"/>
       <c r="H517" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15491,13 +14396,11 @@
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>18</v>
-      </c>
-      <c r="G518" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G518" t="s"/>
       <c r="H518" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15517,13 +14420,11 @@
         <v>10</v>
       </c>
       <c r="F519" t="s">
-        <v>14</v>
-      </c>
-      <c r="G519" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G519" t="s"/>
       <c r="H519" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15543,13 +14444,11 @@
         <v>10</v>
       </c>
       <c r="F520" t="s">
-        <v>18</v>
-      </c>
-      <c r="G520" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G520" t="s"/>
       <c r="H520" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15569,13 +14468,11 @@
         <v>10</v>
       </c>
       <c r="F521" t="s">
-        <v>14</v>
-      </c>
-      <c r="G521" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G521" t="s"/>
       <c r="H521" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15595,13 +14492,11 @@
         <v>10</v>
       </c>
       <c r="F522" t="s">
-        <v>18</v>
-      </c>
-      <c r="G522" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G522" t="s"/>
       <c r="H522" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15621,13 +14516,11 @@
         <v>10</v>
       </c>
       <c r="F523" t="s">
-        <v>14</v>
-      </c>
-      <c r="G523" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G523" t="s"/>
       <c r="H523" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15647,13 +14540,11 @@
         <v>10</v>
       </c>
       <c r="F524" t="s">
-        <v>18</v>
-      </c>
-      <c r="G524" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G524" t="s"/>
       <c r="H524" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15673,13 +14564,11 @@
         <v>10</v>
       </c>
       <c r="F525" t="s">
-        <v>14</v>
-      </c>
-      <c r="G525" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G525" t="s"/>
       <c r="H525" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15699,13 +14588,11 @@
         <v>10</v>
       </c>
       <c r="F526" t="s">
-        <v>18</v>
-      </c>
-      <c r="G526" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G526" t="s"/>
       <c r="H526" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15725,13 +14612,11 @@
         <v>10</v>
       </c>
       <c r="F527" t="s">
-        <v>14</v>
-      </c>
-      <c r="G527" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G527" t="s"/>
       <c r="H527" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15751,13 +14636,11 @@
         <v>10</v>
       </c>
       <c r="F528" t="s">
-        <v>18</v>
-      </c>
-      <c r="G528" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G528" t="s"/>
       <c r="H528" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15777,13 +14660,11 @@
         <v>10</v>
       </c>
       <c r="F529" t="s">
-        <v>14</v>
-      </c>
-      <c r="G529" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G529" t="s"/>
       <c r="H529" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15803,13 +14684,11 @@
         <v>10</v>
       </c>
       <c r="F530" t="s">
-        <v>18</v>
-      </c>
-      <c r="G530" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G530" t="s"/>
       <c r="H530" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15829,13 +14708,11 @@
         <v>10</v>
       </c>
       <c r="F531" t="s">
-        <v>14</v>
-      </c>
-      <c r="G531" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G531" t="s"/>
       <c r="H531" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15855,13 +14732,11 @@
         <v>10</v>
       </c>
       <c r="F532" t="s">
-        <v>18</v>
-      </c>
-      <c r="G532" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G532" t="s"/>
       <c r="H532" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15881,13 +14756,11 @@
         <v>10</v>
       </c>
       <c r="F533" t="s">
-        <v>14</v>
-      </c>
-      <c r="G533" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G533" t="s"/>
       <c r="H533" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15907,13 +14780,11 @@
         <v>10</v>
       </c>
       <c r="F534" t="s">
-        <v>18</v>
-      </c>
-      <c r="G534" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G534" t="s"/>
       <c r="H534" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15933,13 +14804,11 @@
         <v>10</v>
       </c>
       <c r="F535" t="s">
-        <v>14</v>
-      </c>
-      <c r="G535" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G535" t="s"/>
       <c r="H535" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -15959,13 +14828,11 @@
         <v>10</v>
       </c>
       <c r="F536" t="s">
-        <v>18</v>
-      </c>
-      <c r="G536" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G536" t="s"/>
       <c r="H536" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -15985,13 +14852,11 @@
         <v>10</v>
       </c>
       <c r="F537" t="s">
-        <v>14</v>
-      </c>
-      <c r="G537" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G537" t="s"/>
       <c r="H537" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16011,13 +14876,11 @@
         <v>10</v>
       </c>
       <c r="F538" t="s">
-        <v>18</v>
-      </c>
-      <c r="G538" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G538" t="s"/>
       <c r="H538" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16039,11 +14902,9 @@
       <c r="F539" t="s">
         <v>11</v>
       </c>
-      <c r="G539" t="s">
-        <v>12</v>
-      </c>
+      <c r="G539" t="s"/>
       <c r="H539" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16063,13 +14924,11 @@
         <v>10</v>
       </c>
       <c r="F540" t="s">
-        <v>18</v>
-      </c>
-      <c r="G540" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G540" t="s"/>
       <c r="H540" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16091,11 +14950,9 @@
       <c r="F541" t="s">
         <v>11</v>
       </c>
-      <c r="G541" t="s">
-        <v>12</v>
-      </c>
+      <c r="G541" t="s"/>
       <c r="H541" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
